--- a/results/MVSE/freebase/MVSE_freebase<l01><WH>56.16.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l01><WH>56.16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -722,27 +722,27 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="O4" t="n">
-        <v>56.04</v>
+        <v>56.12</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.66</v>
+        <v>0.77</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_41_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_19_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -754,11 +754,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -773,7 +769,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -789,33 +785,33 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01</v>
+        <v>0.35</v>
       </c>
       <c r="O5" t="n">
-        <v>55.97</v>
+        <v>56.04</v>
       </c>
       <c r="P5" t="n">
-        <v>1.14</v>
+        <v>0.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.33</v>
+        <v>0.66</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_47_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_41_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -827,7 +823,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -842,7 +842,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -858,33 +858,33 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.17</v>
+        <v>1.01</v>
       </c>
       <c r="O6" t="n">
-        <v>55.82</v>
+        <v>55.97</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.44</v>
+        <v>1.33</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_23_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_47_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -896,11 +896,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -915,7 +911,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -931,33 +927,33 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="O7" t="n">
-        <v>55.79</v>
+        <v>55.82</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.73</v>
+        <v>0.44</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_30_32', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_23_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -969,7 +965,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -984,7 +984,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1006,27 +1006,27 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="O8" t="n">
-        <v>55.59</v>
+        <v>55.79</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.35</v>
+        <v>0.73</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_58_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_30_32', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1038,11 +1038,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1057,7 +1053,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1073,33 +1069,33 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="O9" t="n">
-        <v>55.48</v>
+        <v>55.59</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_10_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_58_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1130,7 +1126,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1152,27 +1148,27 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="O10" t="n">
-        <v>55.41</v>
+        <v>55.48</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.78</v>
+        <v>0.31</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_21_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_10_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1196,14 +1192,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1218,34 +1214,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.76</v>
+        <v>0.11</v>
       </c>
       <c r="O11" t="n">
-        <v>55.34</v>
+        <v>55.41</v>
       </c>
       <c r="P11" t="n">
-        <v>0.83</v>
+        <v>0.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_47_15', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_21_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1257,7 +1253,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1272,7 +1272,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1292,20 +1292,20 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.34</v>
+        <v>0.76</v>
       </c>
       <c r="O12" t="n">
-        <v>55.29</v>
+        <v>55.34</v>
       </c>
       <c r="P12" t="n">
-        <v>0.12</v>
+        <v>0.83</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.63</v>
+        <v>0.85</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_26_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_47_15', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="n">
@@ -1314,7 +1314,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1326,11 +1326,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1338,14 +1334,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1360,34 +1356,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.65</v>
+        <v>0.34</v>
       </c>
       <c r="O13" t="n">
-        <v>55.19</v>
+        <v>55.29</v>
       </c>
       <c r="P13" t="n">
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_45_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_26_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1414,7 +1410,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1434,20 +1430,20 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="O14" t="n">
-        <v>55.19</v>
+        <v>55.22</v>
       </c>
       <c r="P14" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.59</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_47_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_01_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -1456,7 +1452,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1480,14 +1476,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1502,34 +1498,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.16</v>
+        <v>0.65</v>
       </c>
       <c r="O15" t="n">
-        <v>55.09</v>
+        <v>55.19</v>
       </c>
       <c r="P15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_45_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1549,7 +1545,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1571,9 +1567,7 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>3</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>2</v>
       </c>
@@ -1581,20 +1575,233 @@
         <v>0.36</v>
       </c>
       <c r="O16" t="n">
-        <v>54.87</v>
+        <v>55.19</v>
       </c>
       <c r="P16" t="n">
         <v>0.14</v>
       </c>
       <c r="Q16" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_47_45', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>128</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O17" t="n">
+        <v>55.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_30_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="n">
+        <v>200</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O18" t="n">
+        <v>55.09</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>3</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O19" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q19" t="n">
         <v>0.26</v>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_16_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/freebase/MVSE_freebase<l01><WH>56.16.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l01><WH>56.16.xlsx
@@ -596,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_05_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -669,7 +671,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_34_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -685,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -738,7 +746,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_19_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -754,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -807,7 +821,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_41_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -880,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_47_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -896,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -949,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_23_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1022,7 +1046,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_30_32', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1038,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1091,7 +1121,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_58_50', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1164,7 +1196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_10_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1237,7 +1271,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_21_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1287,7 +1323,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
@@ -1326,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1356,7 +1398,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
@@ -1395,7 +1439,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1425,7 +1473,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
@@ -1521,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_45_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1537,7 +1589,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1567,7 +1623,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
@@ -1606,7 +1664,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1659,7 +1721,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_30_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1709,7 +1773,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
@@ -1748,7 +1814,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1801,7 +1871,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_16_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
